--- a/metadata/animals_entries.xlsx
+++ b/metadata/animals_entries.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f10</t>
+          <t>07_data/matilde/L395_f10</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f11</t>
+          <t>07_data/matilde/L395_f11</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f10/01_raw/2p/functional</t>
+          <t>01_raw/2p/functional</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f10/01_raw/2p/metadata</t>
+          <t>01_raw/2p/metadata</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f10/01_raw/2p/anatomy/L395_f10_anatomy_00002.tif</t>
+          <t>01_raw/2p/anatomy/L395_f10_anatomy_00002.tif</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f10/01_raw/confocal/round1/L395_f10_r1_HuC-H2B-GC6s_sst11_546_pth2_647_Stitch.lsm</t>
+          <t>01_raw/confocal/round1/L395_f10_r1_HuC-H2B-GC6s_sst11_546_pth2_647_Stitch.lsm</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f10/01_raw/confocal/roundn/L395_f10_r2_HuC-H2B-GC6s_sst12_546_tac3b_647_Stitch.lsm</t>
+          <t>01_raw/confocal/roundn/L395_f10_r2_HuC-H2B-GC6s_sst12_546_tac3b_647_Stitch.lsm</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f11/01_raw/2p/functional</t>
+          <t>01_raw/2p/functional</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f11/01_raw/2p/metadata</t>
+          <t>01_raw/2p/metadata</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f11/01_raw/2p/anatomy/L395_f11_anatomy_00001.tif</t>
+          <t>01_raw/2p/anatomy/L395_f11_anatomy_00001.tif</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f11/01_raw/confocal/round1/L395_f11_r1_HuC-H2B-GC6s_sst12_546_pth2_647_Stitch.lsm</t>
+          <t>01_raw/confocal/round1/L395_f11_r1_HuC-H2B-GC6s_sst12_546_pth2_647_Stitch.lsm</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>D:/pipelineTest/L395_f11/01_raw/confocal/roundn/L395_f11_r2_HuC-H2B-GC6s_sst11_546_tac3b_647_Stitch.lsm</t>
+          <t>01_raw/confocal/roundn/L395_f11_r2_HuC-H2B-GC6s_sst11_546_tac3b_647_Stitch.lsm</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>

--- a/metadata/animals_entries.xlsx
+++ b/metadata/animals_entries.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="animals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="stacks" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="two_photon_settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Animals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sessions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2p_settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,294 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>07_data/matilde/L395_f11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L331_f01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>huc:H2B-GCamp6s</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>L331</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L331_f01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L395_f06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>huc:H2B-GCamp6s</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>L395</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L395_f06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L396_f01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>L396</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L396_f01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L396_f03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>L396</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L396_f03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L396_f04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>L396</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L396_f04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L396_f05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>L396</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L396_f05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L427_f01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>huc:H2B-GCamp6s;cort:gal4;UAS:NTR-mCherry</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>L427</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L427_f01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L427_f02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>huc:H2B-GCamp6s;cort:gal4;UAS:NTR-mCherry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>L427</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L427_f02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L427_f03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>huc:H2B-GCamp6s;cort:gal4;UAS:NTR-mCherry</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>L427</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>07_data/matilde/L427_f03</t>
         </is>
       </c>
     </row>
@@ -542,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,6 +1548,3126 @@
       </c>
       <c r="V9" t="n">
         <v>647</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L331_f01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L331_f01_functional_2025-05-20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>functional_stack</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">good signal stopped pump before starting experiment </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>01_raw/2p/functional</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>LR_thalamus_bout_exp01</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>01_raw/2p/metadata</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L331_f01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L331_f01_anatomy_2025-05-20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L331_f01_anatomy_00001.tif</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L331_f01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L331_f01_confocal_round1_2025-05-20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Markers: sst11, pth2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L331_f01_r1_HuC-H2B-GC6s_sst11_546_pth2_647_Stitch.lsm</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>sst11</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>pth2</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L331_f01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L331_f01_confocal_roundn_2025-05-20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Markers: sst12, tac3b</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/roundn/L331_f01_r2_HuC-H2B-GC6s_sst12_546_tac3b_647_Stitch.lsm</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>sst12</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>tac3b</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L395_f06</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>L395_f06_functional_2025-07-03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>functional_stack</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>good signal no flyback</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01_raw/2p/functional</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>LR_thalamus_bout_exp01</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>01_raw/2p/metadata</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L395_f06</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>L395_f06_anatomy_2025-07-03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L395_f06_anatomy_00001.tif</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>L395_f06</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>L395_f06_confocal_round1_2025-07-03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Markers: sst11, pth2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L395_f06_HuC-H2B-GC6s_sst11_546_pth2.647_Stitch.lsm</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>sst11</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>pth2</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>L395_f06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>L395_f06_confocal_roundn_2025-07-03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Markers: sst12, tac3b</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/roundn/L395_f06_HuC-H2B-GC6s_sst12_546_tac3b_647_647_Stitch.lsm</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>sst12</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>tac3b</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L395_f10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>L395_f10_confocal_roundn_2025-07-04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Markers: sst12, tac3b</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/roundn/L395_f10_r2_HuC-H2B-GC6s_sst12_546_tac3b_647_Stitch.lsm</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>sst12</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>tac3b</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L395_f11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>L395_f11_confocal_roundn_2025-07-04</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Markers: sst12, tac3b</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/roundn/L395_f11_HuC-H2B-GC6s_sst12_546_tac3b_647_Stitch.lsm</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>sst12</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>tac3b</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L396_f01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>L396_f01_anatomy_unknown</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L396_f01_anatomy_00001.tif</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>L396_f01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>L396_f01_confocal_round1_unknown</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Markers: sst1, pth2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L396_f01_HuC-H2B-GC6s_sst1_1_546_pth2_647_2048x2048_z1_0_av16x_lp40_.lsm</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>sst1</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>pth2</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>L396_f03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>L396_f03_anatomy_unknown</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L396_f03_anatomy_00001.tif</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>L396_f03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>L396_f03_confocal_round1_unknown</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Markers: sst1, pth2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L396_f03_HuC-H2B-GC6s_sst1_1_546_pth2_647_2048x2048_z1_0_av16x_lp40_.lsm</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>sst1</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>pth2</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>L396_f04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>L396_f04_anatomy_unknown</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L396_f04_anatomy_00001.tif</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>L396_f04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>L396_f04_confocal_round1_unknown</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Markers: sst1, pth2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L396_f04_HuC-H2B-GC6s_sst1_1_546_pth2_647_2048x2048_z1_0_av16x_lp60_.lsm</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>sst1</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>pth2</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L396_f05</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>L396_f05_anatomy_unknown</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L396_f05_anatomy_00001.tif</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L396_f05</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>L396_f05_confocal_round1_unknown</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Markers: sst1, pth2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L396_f05_HuC-H2B-GC6s_sst1_1_546_pth2_647_2048x2048_z1_0_av16x_lp60_.lsm</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>sst1</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>pth2</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L427_f01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>L427_f01_functional_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>functional_stack</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>01_raw/2p/functional</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>groupsize_thalamus_exp02</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>01_raw/2p/metadata</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>L427_f01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>L427_f01_anatomy_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L427_f01_anatomy_00005.tif</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L427_f01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>L427_f01_confocal_round1_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Markers: cort</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L427_f01_HuC-H2B-GC6s_cort_546.lsm</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>cort</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L427_f01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>L427_f01_confocal_roundn_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Markers: cort-mCherry</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/roundn/L427_f01_HuC-H2B-GC6s_cort-mCherry_2048x2048_z1p5_av16x_lp70_.lsm</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>cort-mCherry</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L427_f02</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>L427_f02_functional_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>functional_stack</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>01_raw/2p/functional</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>groupsize_thalamus_exp02</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>01_raw/2p/metadata</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L427_f02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>L427_f02_anatomy_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L427_f02_anatomy_00002.tif</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L427_f02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>L427_f02_confocal_round1_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Markers: cort</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L427_f02_HuC-H2B-GC6s_cort_546.lsm</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>cort</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L427_f02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>L427_f02_confocal_roundn_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Markers: cort-mCherry</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/roundn/L427_f02_HuC-H2B-GC6s_cort-mCherry_2048x2048_z1p5_av16x_lp70_.lsm</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>cort-mCherry</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L427_f03</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>L427_f03_functional_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>functional_stack</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>01_raw/2p/functional</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>groupsize_thalamus_exp02</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>01_raw/2p/metadata</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L427_f03</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>L427_f03_anatomy_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>01_raw/2p/anatomy/L427_f03_anatomy_00003.tif</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>L427_f03</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>L427_f03_confocal_round1_2025-07-25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>anatomy_stack</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Matilde</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Markers: cort-mCherry, 2p-H2B-GC6s</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>01_raw/confocal/round1/L427_f03_HuC-H2B-GC6s_cort-mCherry_2p-H2B-GC6s_900nm_2048x2048_z1_5_av16x_lp70_.lsm</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>gcamp</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>cort-mCherry</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2p-H2B-GC6s</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +4681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,7 +4746,7 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -1367,12 +4775,177 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L331_f01_functional_2025-05-20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L395_f06_functional_2025-07-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>resonant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L427_f01_functional_2025-07-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resonant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L427_f02_functional_2025-07-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>resonant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L427_f03_functional_2025-07-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>resonant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>unknown</t>
         </is>
       </c>
     </row>
